--- a/evaluation/results/hybrid/autoencoder/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/autoencoder/isolation_forest/split_4/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.5327715355805244</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="C2">
-        <v>0.6804123711340206</v>
+        <v>0.6219211822660099</v>
       </c>
       <c r="D2">
-        <v>0.1235955056179775</v>
+        <v>0.9456928838951311</v>
       </c>
       <c r="E2">
-        <v>0.2091917591125198</v>
+        <v>0.75037147102526</v>
       </c>
       <c r="F2">
-        <v>0.1477832512315271</v>
+        <v>0.8565128900949797</v>
       </c>
       <c r="G2">
-        <v>0.1276121067896185</v>
+        <v>0.927128936590877</v>
       </c>
       <c r="H2">
-        <v>0.5327715355805244</v>
+        <v>0.7730996366900924</v>
       </c>
       <c r="I2">
-        <v>66</v>
+        <v>505</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>307</v>
       </c>
       <c r="K2">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="L2">
-        <v>468</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.5180226570545829</v>
+        <v>0.88671875</v>
       </c>
       <c r="C2">
-        <v>0.9419475655430711</v>
+        <v>0.4250936329588015</v>
       </c>
       <c r="D2">
-        <v>0.6684385382059801</v>
+        <v>0.5746835443037974</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.6804123711340206</v>
+        <v>0.6219211822660099</v>
       </c>
       <c r="C3">
-        <v>0.1235955056179775</v>
+        <v>0.9456928838951311</v>
       </c>
       <c r="D3">
-        <v>0.2091917591125198</v>
+        <v>0.75037147102526</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.5327715355805244</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="C4">
-        <v>0.5327715355805244</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="D4">
-        <v>0.5327715355805244</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="E4">
-        <v>0.5327715355805244</v>
+        <v>0.6853932584269663</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.5992175140943018</v>
+        <v>0.7543199661330049</v>
       </c>
       <c r="C5">
-        <v>0.5327715355805244</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="D5">
-        <v>0.43881514865925</v>
+        <v>0.6625275076645287</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.5992175140943018</v>
+        <v>0.754319966133005</v>
       </c>
       <c r="C6">
-        <v>0.5327715355805244</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="D6">
-        <v>0.43881514865925</v>
+        <v>0.6625275076645287</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>503</v>
+        <v>227</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>468</v>
+        <v>29</v>
       </c>
       <c r="C3">
-        <v>66</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
